--- a/erp/tests/files/receivables/receipt_one.xlsx
+++ b/erp/tests/files/receivables/receipt_one.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp Pavilion\Documents\Tut y cursos\CS50 - Intro Web Programming\Final Project\receivables\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC362B5C-ABF9-42C8-8C04-56C25C1AFD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626FEF2-A55B-4892-BEF5-68C49C47360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="receipt_one" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,10 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -952,10 +954,10 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1209</v>
+        <v>1209.0999999999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
